--- a/doc/테이블명세서.xlsx
+++ b/doc/테이블명세서.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="13176" tabRatio="829" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="13176" tabRatio="829" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
     <sheet name="Entity 정의서" sheetId="2" r:id="rId2"/>
-    <sheet name="회원 테이블  명세서" sheetId="3" r:id="rId3"/>
-    <sheet name="게시판 테이블  명세서" sheetId="5" r:id="rId4"/>
-    <sheet name="파일 정보 테이블  명세서" sheetId="6" r:id="rId5"/>
-    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId6"/>
+    <sheet name="회원 테이블  명세서" sheetId="7" r:id="rId3"/>
+    <sheet name="아바타 테이블 명세서)" sheetId="8" r:id="rId4"/>
+    <sheet name="회원 테이블" sheetId="3" r:id="rId5"/>
+    <sheet name="게시판 테이블  명세서" sheetId="5" r:id="rId6"/>
+    <sheet name="방명록 테이블" sheetId="9" r:id="rId7"/>
+    <sheet name="파일 정보 테이블  명세서" sheetId="6" r:id="rId8"/>
+    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="236">
   <si>
     <t>관리자권한여부</t>
   </si>
@@ -1141,6 +1144,310 @@
   </si>
   <si>
     <t>dele</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>일련번호,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 아바타이름, 원이름, 저장이름, 저장경로, 파일크기, 노출여부</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memb</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>avt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>EFERENCES avatar(ano)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>vatar</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.04</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타 정보 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타 이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>원이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장이름</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장경로</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일크기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출여부</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ano</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>oriname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>savename</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>len</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshow</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 CHAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 CHAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 CHAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장날짜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>adate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ysdate</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK IN('Y', 'N'), Y:사용, N: 삭제 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUESTBOARD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출여부</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gno</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshow</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ysdate</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK IN('Y', 'N'), Y:노출, N:삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>EFERENCES member(mno)</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1378,7 +1685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1979,6 +2286,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1988,7 +2306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2169,207 +2487,6 @@
     <xf numFmtId="41" fontId="5" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2394,40 +2511,247 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="22" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2739,7 +3063,7 @@
   <dimension ref="C2:E33"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2750,71 +3074,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" s="1" customFormat="1" ht="48.75" customHeight="1">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="3:5" s="1" customFormat="1"/>
     <row r="4" spans="3:5">
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="127" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="60" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="128" t="s">
+      <c r="D5" s="77"/>
+      <c r="E5" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="145">
+      <c r="D8" s="82"/>
+      <c r="E8" s="72">
         <v>1521</v>
       </c>
     </row>
     <row r="9" spans="3:5" s="1" customFormat="1">
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="146" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="73" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:5" s="1" customFormat="1">
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="146">
+      <c r="D10" s="82"/>
+      <c r="E10" s="73">
         <v>12345</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="128" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="61" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2833,10 +3157,10 @@
       <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="129" t="s">
+      <c r="D14" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="64" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2844,10 +3168,10 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="130" t="s">
+      <c r="D15" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="132" t="s">
+      <c r="E15" s="65" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2855,10 +3179,10 @@
       <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="65" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2866,7 +3190,9 @@
       <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="63" t="s">
+        <v>188</v>
+      </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5">
@@ -3004,7 +3330,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.399999999999999"/>
@@ -3015,11 +3341,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="36" customHeight="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="4" spans="2:4" s="16" customFormat="1" ht="25.95" customHeight="1">
       <c r="B4" s="13" t="s">
@@ -3036,10 +3362,10 @@
       <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="67" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3047,10 +3373,10 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="65" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3058,10 +3384,10 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="65" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3069,8 +3395,12 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4">
@@ -3161,652 +3491,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor rgb="FFC0504D"/>
-  </sheetPr>
-  <dimension ref="B2:P34"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.8984375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.69921875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.69921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.69921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" style="1"/>
-    <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="137" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="85"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-    </row>
-    <row r="6" spans="2:15" ht="18" thickBot="1">
-      <c r="B6" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="143" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="143" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="57">
-        <v>1</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="24">
-        <v>4</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="58">
-        <v>2</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="58">
-        <v>3</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="58">
-        <v>4</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="26"/>
-      <c r="O10" s="32"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="58">
-        <v>5</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="58">
-        <v>6</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="58">
-        <v>7</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="50"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="58">
-        <v>8</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="25">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="58">
-        <v>9</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="58">
-        <v>10</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="40">
-        <v>1</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="144" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="58">
-        <v>11</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="58">
-        <v>12</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="52"/>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="58">
-        <v>13</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="58">
-        <v>14</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="58">
-        <v>15</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="26"/>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="58">
-        <v>16</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="58">
-        <v>17</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="53"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="58">
-        <v>18</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="53"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="58">
-        <v>19</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="2:16" ht="18" thickBot="1">
-      <c r="B26" s="59">
-        <v>20</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
-    </row>
-    <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="140" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -3826,78 +3517,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="137" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="138" t="s">
+      <c r="K4" s="116"/>
+      <c r="L4" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="54" t="s">
@@ -3915,19 +3606,19 @@
       <c r="F6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="143" t="s">
+      <c r="J6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="143" t="s">
+      <c r="K6" s="70" t="s">
         <v>72</v>
       </c>
       <c r="L6" s="55" t="s">
@@ -3942,19 +3633,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="F7" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="34"/>
@@ -3968,23 +3659,23 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="141">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="36"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="26"/>
@@ -3994,52 +3685,50 @@
         <v>3</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="141">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>115</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="36"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" s="36" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="52" t="s">
-        <v>157</v>
-      </c>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="58">
         <v>4</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="141" t="s">
-        <v>138</v>
+        <v>113</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>116</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -4051,22 +3740,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="141">
-        <v>4000</v>
+        <v>113</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>117</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="J11" s="36" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="18"/>
@@ -4077,137 +3768,164 @@
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="141"/>
+        <v>113</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>118</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="J12" s="36" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="K12" s="27"/>
-      <c r="L12" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="M12" s="52"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="52" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="58">
         <v>7</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="141"/>
+        <v>185</v>
+      </c>
+      <c r="F13" s="68">
+        <v>2</v>
+      </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="36" t="s">
+        <v>186</v>
+      </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="J13" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="18"/>
-      <c r="M13" s="50"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="74" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="58">
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F14" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36">
-        <v>0</v>
-      </c>
-      <c r="M14" s="52"/>
+        <v>51</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="52" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="58">
         <v>9</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="142">
-        <v>1</v>
-      </c>
+      <c r="C15" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
-      <c r="J15" s="36" t="s">
-        <v>147</v>
+      <c r="J15" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="K15" s="43"/>
-      <c r="L15" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" s="144" t="s">
-        <v>150</v>
-      </c>
+      <c r="L15" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="58">
         <v>10</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="43"/>
+      <c r="J16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="71" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="58">
         <v>11</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="144"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="58">
@@ -4355,48 +4073,43 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="139" t="s">
+      <c r="C27" s="92"/>
+      <c r="D27" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="140" t="s">
+      <c r="C28" s="97"/>
+      <c r="D28" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -4405,6 +4118,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -4412,15 +4130,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="E1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -4440,78 +4158,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="137" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="138" t="s">
+      <c r="K4" s="116"/>
+      <c r="L4" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="54" t="s">
@@ -4529,19 +4247,19 @@
       <c r="F6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="143" t="s">
+      <c r="J6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="143" t="s">
+      <c r="K6" s="70" t="s">
         <v>72</v>
       </c>
       <c r="L6" s="55" t="s">
@@ -4556,19 +4274,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="F7" s="24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="34"/>
@@ -4582,52 +4300,48 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="141">
-        <v>6</v>
+        <v>184</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>207</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="36" t="s">
-        <v>147</v>
-      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="36" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="52" t="s">
-        <v>168</v>
-      </c>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="58">
         <v>3</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="141">
-        <v>50</v>
+        <v>184</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>208</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -4638,24 +4352,24 @@
         <v>4</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="141" t="s">
-        <v>166</v>
+        <v>184</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>208</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="36" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -4667,22 +4381,22 @@
         <v>5</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="141">
-        <v>200</v>
+        <v>184</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>209</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="18"/>
@@ -4693,22 +4407,20 @@
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="141">
-        <v>12</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F12" s="68"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="18"/>
@@ -4718,27 +4430,24 @@
       <c r="B13" s="58">
         <v>7</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="141">
-        <v>6</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18">
-        <v>0</v>
+      <c r="C13" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="M13" s="50"/>
     </row>
@@ -4747,78 +4456,80 @@
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="25">
+        <v>206</v>
+      </c>
+      <c r="F14" s="68">
         <v>1</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="36"/>
+        <v>186</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>186</v>
+      </c>
       <c r="L14" s="37" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="58">
         <v>9</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="142"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
-      <c r="J15" s="39"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="43"/>
       <c r="L15" s="41"/>
-      <c r="M15" s="144"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="58">
         <v>10</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="43"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="71"/>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="58">
         <v>11</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="144"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="58">
@@ -4966,40 +4677,679 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="139" t="s">
+      <c r="C27" s="92"/>
+      <c r="D27" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="140" t="s">
+      <c r="C28" s="97"/>
+      <c r="D28" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B2:P34"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.69921875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="118"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.6" thickBot="1">
+      <c r="B5" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+    </row>
+    <row r="6" spans="2:15" ht="18" thickBot="1">
+      <c r="B6" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="58">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="58">
+        <v>3</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="58">
+        <v>4</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="26"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="58">
+        <v>5</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="58">
+        <v>6</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="58">
+        <v>7</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="58">
+        <v>8</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="58">
+        <v>9</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="58">
+        <v>10</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="58">
+        <v>11</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="58">
+        <v>12</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="58">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="58">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="58">
+        <v>15</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="26"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="58">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="58">
+        <v>17</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="58">
+        <v>18</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="58">
+        <v>19</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" thickBot="1">
+      <c r="B26" s="59">
+        <v>20</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" thickBot="1">
+      <c r="B28" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5030,6 +5380,1811 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.69921875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1">
+      <c r="B4" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="118"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.6" thickBot="1">
+      <c r="B5" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+    </row>
+    <row r="6" spans="2:15" ht="18" thickBot="1">
+      <c r="B6" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="24">
+        <v>6</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="58">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="68">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="58">
+        <v>3</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="68">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="58">
+        <v>4</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="26"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="58">
+        <v>5</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="68">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="58">
+        <v>6</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="58">
+        <v>7</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="18"/>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="58">
+        <v>8</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="25">
+        <v>6</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36">
+        <v>0</v>
+      </c>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="58">
+        <v>9</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="69">
+        <v>1</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="58">
+        <v>10</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="58">
+        <v>11</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="71"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="58">
+        <v>12</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="58">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="58">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="58">
+        <v>15</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="26"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="58">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="58">
+        <v>17</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="58">
+        <v>18</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="58">
+        <v>19</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" thickBot="1">
+      <c r="B26" s="59">
+        <v>20</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" thickBot="1">
+      <c r="B28" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.69921875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1">
+      <c r="B4" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="118"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.6" thickBot="1">
+      <c r="B5" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+    </row>
+    <row r="6" spans="2:15" ht="18" thickBot="1">
+      <c r="B6" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="58">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="68">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="58">
+        <v>3</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="68">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="52"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="58">
+        <v>4</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="58">
+        <v>5</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="68">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="58">
+        <v>6</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="58">
+        <v>7</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="18"/>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="58">
+        <v>8</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="58">
+        <v>9</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="71"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="58">
+        <v>10</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="58">
+        <v>11</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="71"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="58">
+        <v>12</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="58">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="58">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="58">
+        <v>15</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="26"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="58">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="58">
+        <v>17</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="58">
+        <v>18</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="58">
+        <v>19</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" thickBot="1">
+      <c r="B26" s="59">
+        <v>20</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" thickBot="1">
+      <c r="B28" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8984375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.69921875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1">
+      <c r="B4" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="118"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.6" thickBot="1">
+      <c r="B5" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+    </row>
+    <row r="6" spans="2:15" ht="18" thickBot="1">
+      <c r="B6" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="24">
+        <v>7</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="58">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="68">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="58">
+        <v>3</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="68">
+        <v>50</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="58">
+        <v>4</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="26"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="58">
+        <v>5</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="68">
+        <v>200</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="58">
+        <v>6</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="68">
+        <v>12</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="58">
+        <v>7</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="68">
+        <v>6</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="58">
+        <v>8</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="58">
+        <v>9</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="71"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="58">
+        <v>10</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="58">
+        <v>11</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="71"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="58">
+        <v>12</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="58">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="58">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="58">
+        <v>15</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="26"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="58">
+        <v>16</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="58">
+        <v>17</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="58">
+        <v>18</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="58">
+        <v>19</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" ht="18" thickBot="1">
+      <c r="B26" s="59">
+        <v>20</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" thickBot="1">
+      <c r="B28" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
@@ -5049,74 +7204,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="141"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="121" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="121"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="148"/>
     </row>
     <row r="5" spans="2:15" ht="24.6" thickBot="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1">
       <c r="B6" s="48" t="s">
@@ -5625,40 +7780,40 @@
       <c r="M26" s="31"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102" t="s">
+      <c r="C27" s="123"/>
+      <c r="D27" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
     </row>
     <row r="28" spans="2:16" ht="18" thickBot="1">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="107" t="s">
+      <c r="C28" s="128"/>
+      <c r="D28" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="13">
